--- a/tut04/output_by_subject/ME603.csv.xlsx
+++ b/tut04/output_by_subject/ME603.csv.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -766,6 +766,336 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2011ME11</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ME603</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2011ME20</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ME603</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2011ME12</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ME603</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2011ME01</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ME603</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2011ME21</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ME603</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2011ME17</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ME603</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2011ME15</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ME603</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2011ME09</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ME603</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2011ME02</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ME603</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2011ME22</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ME603</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2011ME10</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ME603</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2011ME08</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ME603</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2011ME05</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ME603</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2011ME23</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ME603</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2011ME07</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ME603</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
